--- a/images/Lego und Playmobil.xlsx
+++ b/images/Lego und Playmobil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sascha\Desktop\legorsnlpzde\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7C741C-91C8-4E52-A30E-6A39D2F963A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1EE6DA-B69E-4740-9BD3-2785C8A0962A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lego" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,14 +657,14 @@
       </c>
       <c r="W4" s="1">
         <f>U4*$AD$9</f>
-        <v>12.065000000000001</v>
+        <v>9.0487500000000001</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AD4" s="1">
         <f>SUM(U4:U9,U11:U31,U33,U35:U38,U40)</f>
-        <v>823.60500000000002</v>
+        <v>823.54250000000002</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -710,7 +710,7 @@
       </c>
       <c r="W5" s="1">
         <f t="shared" ref="W5:W40" si="4">U5*$AD$9</f>
-        <v>8.2010000000000005</v>
+        <v>6.1507500000000004</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
       </c>
       <c r="W6" s="1">
         <f t="shared" si="4"/>
-        <v>25.731999999999999</v>
+        <v>19.298999999999999</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>28</v>
@@ -809,14 +809,14 @@
       </c>
       <c r="W7" s="1">
         <f t="shared" si="4"/>
-        <v>117.03600000000002</v>
+        <v>87.777000000000001</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AD7" s="1">
         <f>SUM(S4:S9,S11:S31,S33,S35:S38,S40)</f>
-        <v>59.06</v>
+        <v>58.935000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -853,7 +853,7 @@
       </c>
       <c r="W8" s="1">
         <f t="shared" si="4"/>
-        <v>8.3439999999999994</v>
+        <v>6.258</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -893,13 +893,13 @@
       </c>
       <c r="W9" s="1">
         <f t="shared" si="4"/>
-        <v>25.936000000000003</v>
+        <v>19.452000000000002</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -945,7 +945,7 @@
       </c>
       <c r="W11" s="1">
         <f t="shared" si="4"/>
-        <v>88.63900000000001</v>
+        <v>66.479249999999993</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
       </c>
       <c r="W12" s="1">
         <f t="shared" si="4"/>
-        <v>8.1270000000000007</v>
+        <v>6.0952500000000009</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="W13" s="1">
         <f t="shared" si="4"/>
-        <v>25.188000000000002</v>
+        <v>18.890999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="W14" s="1">
         <f t="shared" si="4"/>
-        <v>20.011000000000003</v>
+        <v>15.00825</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="W15" s="1">
         <f t="shared" si="4"/>
-        <v>39.331000000000003</v>
+        <v>29.498249999999999</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="W16" s="1">
         <f t="shared" si="4"/>
-        <v>33.357000000000006</v>
+        <v>25.017750000000003</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.35">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="W17" s="1">
         <f t="shared" si="4"/>
-        <v>7.7349999999999994</v>
+        <v>5.8012499999999996</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.35">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="W18" s="1">
         <f t="shared" si="4"/>
-        <v>5.971000000000001</v>
+        <v>4.4782500000000001</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="W19" s="1">
         <f t="shared" si="4"/>
-        <v>7.7860000000000005</v>
+        <v>5.8395000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="W20" s="1">
         <f t="shared" si="4"/>
-        <v>4.6470000000000002</v>
+        <v>3.4852499999999997</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.35">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="W21" s="1">
         <f t="shared" si="4"/>
-        <v>6.5420000000000007</v>
+        <v>4.9065000000000003</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="W22" s="1">
         <f t="shared" si="4"/>
-        <v>8.583000000000002</v>
+        <v>6.4372500000000006</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="W23" s="1">
         <f t="shared" si="4"/>
-        <v>5.995000000000001</v>
+        <v>4.4962499999999999</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W24" s="1">
         <f t="shared" si="4"/>
-        <v>5.2439999999999998</v>
+        <v>3.9329999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="W25" s="1">
         <f t="shared" si="4"/>
-        <v>6.2110000000000003</v>
+        <v>4.6582499999999998</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.35">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="W26" s="1">
         <f t="shared" si="4"/>
-        <v>13.402000000000001</v>
+        <v>10.051500000000001</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.35">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="W27" s="1">
         <f t="shared" si="4"/>
-        <v>11.317000000000002</v>
+        <v>8.4877500000000001</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="W28" s="1">
         <f t="shared" si="4"/>
-        <v>7.3400000000000007</v>
+        <v>5.5049999999999999</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.35">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="W29" s="1">
         <f t="shared" si="4"/>
-        <v>23.743000000000002</v>
+        <v>17.80725</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.35">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="W30" s="1">
         <f t="shared" si="4"/>
-        <v>25.037000000000003</v>
+        <v>18.777750000000001</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.35">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="W31" s="1">
         <f t="shared" si="4"/>
-        <v>14.048000000000002</v>
+        <v>10.536000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.35">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="W33" s="1">
         <f t="shared" si="4"/>
-        <v>15.729000000000003</v>
+        <v>11.796750000000001</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>10</v>
@@ -1946,21 +1946,24 @@
       <c r="L35" s="1">
         <v>9</v>
       </c>
+      <c r="O35" s="1">
+        <v>18</v>
+      </c>
       <c r="Q35" s="1">
         <f t="shared" si="2"/>
-        <v>18.625</v>
+        <v>18.5</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" si="3"/>
-        <v>-8.3649999999999984</v>
+        <v>-8.4899999999999984</v>
       </c>
       <c r="U35" s="1">
         <f>AVERAGE(Q35,E35)</f>
-        <v>21.612500000000001</v>
+        <v>21.55</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="4"/>
-        <v>17.290000000000003</v>
+        <v>12.93</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>11</v>
@@ -2009,7 +2012,7 @@
       </c>
       <c r="W36" s="1">
         <f t="shared" si="4"/>
-        <v>34.176000000000002</v>
+        <v>25.631999999999998</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>11</v>
@@ -2058,7 +2061,7 @@
       </c>
       <c r="W37" s="1">
         <f t="shared" si="4"/>
-        <v>16.312999999999999</v>
+        <v>12.23475</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>11</v>
@@ -2098,7 +2101,7 @@
       </c>
       <c r="W38" s="1">
         <f t="shared" si="4"/>
-        <v>9.8079999999999998</v>
+        <v>7.3559999999999999</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>11</v>
